--- a/server/DATA/default_details/company_details.xlsx
+++ b/server/DATA/default_details/company_details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovan\Downloads\grp_quotation_generator\server\default_details\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jovan\Downloads\grp_quotation_generator\server\DATA\default_details\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>last_updated_time</t>
   </si>
   <si>
-    <t>grp</t>
-  </si>
-  <si>
     <t>GRP TANKS TRADING L.L.C</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>template/grp_template</t>
   </si>
   <si>
-    <t>grptanks.com</t>
-  </si>
-  <si>
-    <t>grp pipeco</t>
-  </si>
-  <si>
     <t>GRP PIPECO TANKS TRADING L.L.C</t>
   </si>
   <si>
@@ -86,12 +77,6 @@
     <t>template/pipeco_template</t>
   </si>
   <si>
-    <t>grppipeco.com</t>
-  </si>
-  <si>
-    <t>colex</t>
-  </si>
-  <si>
     <t>COLEX TANKS TRADING L.L.C</t>
   </si>
   <si>
@@ -104,7 +89,22 @@
     <t>template/colex_template</t>
   </si>
   <si>
-    <t>colextanks.com</t>
+    <t>colexgrp.com</t>
+  </si>
+  <si>
+    <t>pipecogrp.com</t>
+  </si>
+  <si>
+    <t>grppaneltank.com</t>
+  </si>
+  <si>
+    <t>GRP PANEL TANK</t>
+  </si>
+  <si>
+    <t>COLEX TANKS KOREA</t>
+  </si>
+  <si>
+    <t>PIPECO TANKS MALASIYA</t>
   </si>
 </sst>
 </file>
@@ -454,10 +454,15 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -493,22 +498,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -516,22 +521,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -539,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/server/DATA/default_details/company_details.xlsx
+++ b/server/DATA/default_details/company_details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,42 @@
   </si>
   <si>
     <t>PIPECO TANKS MALASIYA</t>
+  </si>
+  <si>
+    <t>apex</t>
+  </si>
+  <si>
+    <t>APEX TANKS TRADING L.L.C</t>
+  </si>
+  <si>
+    <t>APX</t>
+  </si>
+  <si>
+    <t>signs&amp;seals/apex_seal</t>
+  </si>
+  <si>
+    <t>template/apex_template</t>
+  </si>
+  <si>
+    <t>apextanks.com</t>
+  </si>
+  <si>
+    <t>kings</t>
+  </si>
+  <si>
+    <t>kings TANKS TRADING L.L.C</t>
+  </si>
+  <si>
+    <t>KINGS</t>
+  </si>
+  <si>
+    <t>signs&amp;seals/kings_seal</t>
+  </si>
+  <si>
+    <t>template/kings_template</t>
+  </si>
+  <si>
+    <t>kingstanks.com</t>
   </si>
 </sst>
 </file>
@@ -451,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,6 +598,52 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/DATA/default_details/company_details.xlsx
+++ b/server/DATA/default_details/company_details.xlsx
@@ -62,9 +62,6 @@
     <t>signs&amp;seals/grp_seal</t>
   </si>
   <si>
-    <t>template/grp_template</t>
-  </si>
-  <si>
     <t>GRP PIPECO TANKS TRADING L.L.C</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>signs&amp;seals/pipeco_seal</t>
   </si>
   <si>
-    <t>template/pipeco_template</t>
-  </si>
-  <si>
     <t>COLEX TANKS TRADING L.L.C</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>signs&amp;seals/colex_seal</t>
   </si>
   <si>
-    <t>template/colex_template</t>
-  </si>
-  <si>
     <t>colexgrp.com</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>signs&amp;seals/apex_seal</t>
   </si>
   <si>
-    <t>template/apex_template</t>
-  </si>
-  <si>
     <t>apextanks.com</t>
   </si>
   <si>
@@ -137,10 +125,22 @@
     <t>signs&amp;seals/kings_seal</t>
   </si>
   <si>
-    <t>template/kings_template</t>
-  </si>
-  <si>
     <t>kingstanks.com</t>
+  </si>
+  <si>
+    <t>grp_template</t>
+  </si>
+  <si>
+    <t>pipeco_template</t>
+  </si>
+  <si>
+    <t>colex_template</t>
+  </si>
+  <si>
+    <t>apex_template</t>
+  </si>
+  <si>
+    <t>kings_template</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -546,10 +546,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -557,22 +557,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -580,22 +580,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -603,22 +603,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/server/DATA/default_details/company_details.xlsx
+++ b/server/DATA/default_details/company_details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -98,36 +98,6 @@
     <t>PIPECO TANKS MALASIYA</t>
   </si>
   <si>
-    <t>apex</t>
-  </si>
-  <si>
-    <t>APEX TANKS TRADING L.L.C</t>
-  </si>
-  <si>
-    <t>APX</t>
-  </si>
-  <si>
-    <t>signs&amp;seals/apex_seal</t>
-  </si>
-  <si>
-    <t>apextanks.com</t>
-  </si>
-  <si>
-    <t>kings</t>
-  </si>
-  <si>
-    <t>kings TANKS TRADING L.L.C</t>
-  </si>
-  <si>
-    <t>KINGS</t>
-  </si>
-  <si>
-    <t>signs&amp;seals/kings_seal</t>
-  </si>
-  <si>
-    <t>kingstanks.com</t>
-  </si>
-  <si>
     <t>grp_template</t>
   </si>
   <si>
@@ -137,10 +107,16 @@
     <t>colex_template</t>
   </si>
   <si>
-    <t>apex_template</t>
-  </si>
-  <si>
-    <t>kings_template</t>
+    <t>company_storage_path</t>
+  </si>
+  <si>
+    <t>C:\Users\jovan\Downloads\grp_quotation_generator\server\Final_Doc/GRPT</t>
+  </si>
+  <si>
+    <t>C:\Users\jovan\Downloads\grp_quotation_generator\server\Final_Doc/GRPPT</t>
+  </si>
+  <si>
+    <t>C:\Users\jovan\Downloads\grp_quotation_generator\server\Final_Doc/CLX</t>
   </si>
 </sst>
 </file>
@@ -487,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,9 +474,10 @@
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,13 +500,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -546,13 +526,16 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -569,13 +552,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -592,56 +578,13 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H4" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/server/DATA/default_details/company_details.xlsx
+++ b/server/DATA/default_details/company_details.xlsx
@@ -131,7 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -193,6 +193,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,13 +507,13 @@
   <cols>
     <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="23.719285714285714" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="78.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="77.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
